--- a/data/home page.xlsx
+++ b/data/home page.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,6 +813,12 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -844,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -921,6 +927,9 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">

--- a/data/home page.xlsx
+++ b/data/home page.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/home page.xlsx
+++ b/data/home page.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -573,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>8222</v>
+        <v>8221</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -617,7 +617,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>130688</v>
+        <v>130687</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -661,7 +661,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>1235906</v>
+        <v>1235905</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -694,7 +694,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>2564822.21</v>
+        <v>2564822.2000000002</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
